--- a/Excel/MCD - DFC.xlsx
+++ b/Excel/MCD - DFC.xlsx
@@ -5,20 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Portfolio/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C4F34-6DCB-1747-913E-10FABEFF6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B700FDEE-FB53-C944-9E2B-573CC87F4034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1840" windowWidth="28480" windowHeight="17180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="1840" windowWidth="28480" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparable Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Statement Model" sheetId="2" r:id="rId2"/>
-    <sheet name="DCF" sheetId="3" r:id="rId3"/>
-    <sheet name="Income Statement" sheetId="11" r:id="rId4"/>
-    <sheet name="Balance Sheet" sheetId="10" r:id="rId5"/>
-    <sheet name="Cash Flow Statement" sheetId="12" r:id="rId6"/>
+    <sheet name="Statement Model" sheetId="2" r:id="rId1"/>
+    <sheet name="DCF" sheetId="3" r:id="rId2"/>
+    <sheet name="Income Statement" sheetId="11" r:id="rId3"/>
+    <sheet name="Balance Sheet" sheetId="10" r:id="rId4"/>
+    <sheet name="Cash Flow Statement" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="281">
   <si>
     <t>Ticker</t>
   </si>
@@ -877,10 +876,10 @@
     <t>Repurchase of Capital stock</t>
   </si>
   <si>
-    <t>aligned some what with the USA inflation</t>
-  </si>
-  <si>
     <t>MCD</t>
+  </si>
+  <si>
+    <t>Higher growth due to global price increases driven by inflation (lagging effect). Now that inflation is taking a downturn the rev growth will slow due to the inelastic nature of the product.</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,12 +1021,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,7 +1345,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1412,8 +1404,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1739,23 +1734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1767,11 +1750,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1779,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1859,7 +1842,7 @@
     </row>
     <row r="9" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="101" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="69">
@@ -1912,7 +1895,7 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="50">
@@ -1954,7 +1937,7 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="87" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8"/>
@@ -1970,23 +1953,23 @@
         <f>(F11-E11)/E11</f>
         <v>9.9691147671098157E-2</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="107">
         <v>0.05</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="108">
         <v>0.04</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="108">
         <v>0.03</v>
       </c>
-      <c r="J12" s="109">
+      <c r="J12" s="108">
         <v>0.02</v>
       </c>
-      <c r="K12" s="109">
+      <c r="K12" s="108">
         <v>0.02</v>
       </c>
-      <c r="L12" s="84" t="s">
-        <v>279</v>
+      <c r="L12" s="123" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1996,7 +1979,7 @@
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="22"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
@@ -2038,10 +2021,10 @@
         <f>K11*K15</f>
         <v>13496675589.417999</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="123"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="8">
@@ -2080,9 +2063,7 @@
         <f>AVERAGE($C$15:$F$15)</f>
         <v>0.45241159979793844</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="L15" s="123"/>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
@@ -2104,19 +2085,19 @@
         <f>'Income Statement'!E5</f>
         <v>14562500000</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="91">
         <f>G11-G14</f>
         <v>14658057118.142862</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="92">
         <f>H11-H14</f>
         <v>15244379402.868576</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="92">
         <f>I11-I14</f>
         <v>15701710784.954634</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="92">
         <f>J11-J14</f>
         <v>16015745000.653727</v>
       </c>
@@ -2124,10 +2105,10 @@
         <f>K11-K14</f>
         <v>16336059900.666801</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="123"/>
     </row>
     <row r="17" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="87" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="8">
@@ -2163,7 +2144,7 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="88" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="50">
@@ -2399,10 +2380,10 @@
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="101">
+      <c r="C26" s="100">
         <f t="shared" ref="C26:K26" si="2">C14+C23</f>
         <v>13452100000</v>
       </c>
@@ -2483,7 +2464,7 @@
       <c r="L27" s="11"/>
     </row>
     <row r="28" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="87" t="s">
         <v>272</v>
       </c>
       <c r="C28" s="8">
@@ -2567,7 +2548,7 @@
       <c r="L29" s="11"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="87" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="8">
@@ -2611,7 +2592,7 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="88" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="50">
@@ -2658,35 +2639,35 @@
       <c r="B32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="99">
         <f t="shared" ref="C32:K32" si="6">C27+C29+C31</f>
         <v>8725200000</v>
       </c>
-      <c r="D32" s="100">
+      <c r="D32" s="99">
         <f t="shared" si="6"/>
         <v>11388200000</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="99">
         <f t="shared" si="6"/>
         <v>11922000000</v>
       </c>
-      <c r="F32" s="100">
+      <c r="F32" s="99">
         <f t="shared" si="6"/>
         <v>13488100000</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="91">
         <f t="shared" si="6"/>
         <v>12774395172.919115</v>
       </c>
-      <c r="H32" s="93">
+      <c r="H32" s="92">
         <f t="shared" si="6"/>
         <v>13159364616.365828</v>
       </c>
-      <c r="I32" s="93">
+      <c r="I32" s="92">
         <f t="shared" si="6"/>
         <v>13459640782.254265</v>
       </c>
-      <c r="J32" s="93">
+      <c r="J32" s="92">
         <f t="shared" si="6"/>
         <v>13665830416.164324</v>
       </c>
@@ -2697,7 +2678,7 @@
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="87" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="8">
@@ -2745,7 +2726,7 @@
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="85"/>
+      <c r="H34" s="84"/>
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2810,7 +2791,7 @@
       <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="87" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="8">
@@ -2913,19 +2894,19 @@
         <f>'Income Statement'!E25</f>
         <v>8468800000</v>
       </c>
-      <c r="G39" s="92">
+      <c r="G39" s="91">
         <f>G36-G38</f>
         <v>10283388114.199888</v>
       </c>
-      <c r="H39" s="93">
+      <c r="H39" s="92">
         <f>H36-H38</f>
         <v>10593288516.174492</v>
       </c>
-      <c r="I39" s="93">
+      <c r="I39" s="92">
         <f>I36-I38</f>
         <v>10835010829.714684</v>
       </c>
-      <c r="J39" s="93">
+      <c r="J39" s="92">
         <f>J36-J38</f>
         <v>11000993485.01228</v>
       </c>
@@ -3033,11 +3014,11 @@
         <f t="shared" si="9"/>
         <v>2027</v>
       </c>
-      <c r="K44" s="90">
+      <c r="K44" s="89">
         <f t="shared" si="9"/>
         <v>2028</v>
       </c>
-      <c r="L44" s="91" t="s">
+      <c r="L44" s="90" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3114,7 +3095,7 @@
       <c r="E48" s="72">
         <v>0</v>
       </c>
-      <c r="F48" s="106">
+      <c r="F48" s="105">
         <v>0</v>
       </c>
       <c r="G48" s="72">
@@ -3285,27 +3266,27 @@
         <f>E51/E11</f>
         <v>2.2430616065497399E-3</v>
       </c>
-      <c r="F52" s="119">
+      <c r="F52" s="118">
         <f>F51/F11</f>
         <v>2.0710999188034689E-3</v>
       </c>
-      <c r="G52" s="109">
+      <c r="G52" s="108">
         <f>AVERAGE($C$52:$F$52)</f>
         <v>2.3421818938204461E-3</v>
       </c>
-      <c r="H52" s="109">
+      <c r="H52" s="108">
         <f>AVERAGE($C$52:$F$52)</f>
         <v>2.3421818938204461E-3</v>
       </c>
-      <c r="I52" s="109">
+      <c r="I52" s="108">
         <f>AVERAGE($C$52:$F$52)</f>
         <v>2.3421818938204461E-3</v>
       </c>
-      <c r="J52" s="109">
+      <c r="J52" s="108">
         <f>AVERAGE($C$52:$F$52)</f>
         <v>2.3421818938204461E-3</v>
       </c>
-      <c r="K52" s="109">
+      <c r="K52" s="108">
         <f>AVERAGE($C$52:$F$52)</f>
         <v>2.3421818938204461E-3</v>
       </c>
@@ -3581,7 +3562,7 @@
         <f t="shared" si="12"/>
         <v>45011400000</v>
       </c>
-      <c r="F60" s="106">
+      <c r="F60" s="105">
         <f t="shared" si="12"/>
         <v>48160400000</v>
       </c>
@@ -3635,19 +3616,19 @@
         <f t="shared" si="13"/>
         <v>56146800000</v>
       </c>
-      <c r="G62" s="93">
+      <c r="G62" s="92">
         <f t="shared" si="13"/>
         <v>56365845162.390549</v>
       </c>
-      <c r="H62" s="93">
+      <c r="H62" s="92">
         <f t="shared" si="13"/>
         <v>53939565341.551788</v>
       </c>
-      <c r="I62" s="93">
+      <c r="I62" s="92">
         <f t="shared" si="13"/>
         <v>66744424658.130692</v>
       </c>
-      <c r="J62" s="93">
+      <c r="J62" s="92">
         <f t="shared" si="13"/>
         <v>71822847956.204147</v>
       </c>
@@ -3982,23 +3963,23 @@
         <f t="shared" si="15"/>
         <v>6859000000</v>
       </c>
-      <c r="G72" s="93">
+      <c r="G72" s="92">
         <f>SUM(G65,G67:G68,G70:G71)</f>
         <v>6915717951.8093357</v>
       </c>
-      <c r="H72" s="93">
+      <c r="H72" s="92">
         <f t="shared" ref="H72:K72" si="16">SUM(H65,H67:H68,H70:H71)</f>
         <v>7045286047.2568235</v>
       </c>
-      <c r="I72" s="93">
+      <c r="I72" s="92">
         <f t="shared" si="16"/>
         <v>7228366841.4791975</v>
       </c>
-      <c r="J72" s="93">
+      <c r="J72" s="92">
         <f t="shared" si="16"/>
         <v>7389348655.7267666</v>
       </c>
-      <c r="K72" s="93">
+      <c r="K72" s="92">
         <f t="shared" si="16"/>
         <v>7401277219.5058784</v>
       </c>
@@ -4281,15 +4262,15 @@
       <c r="B81" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="93">
+      <c r="C81" s="92">
         <f>C79+C72</f>
         <v>60451700000</v>
       </c>
-      <c r="D81" s="93">
+      <c r="D81" s="92">
         <f>D79+D72</f>
         <v>58455300000</v>
       </c>
-      <c r="E81" s="93">
+      <c r="E81" s="92">
         <f>E79+E72</f>
         <v>56439000000</v>
       </c>
@@ -4297,19 +4278,19 @@
         <f>F79+F72</f>
         <v>60853500000</v>
       </c>
-      <c r="G81" s="93">
+      <c r="G81" s="92">
         <f>G72+G79</f>
         <v>60820542951.809334</v>
       </c>
-      <c r="H81" s="93">
+      <c r="H81" s="92">
         <f>H72+H79</f>
         <v>60835692297.256821</v>
       </c>
-      <c r="I81" s="93">
+      <c r="I81" s="92">
         <f>I72+I79</f>
         <v>60944124653.979195</v>
       </c>
-      <c r="J81" s="93">
+      <c r="J81" s="92">
         <f>J72+J79</f>
         <v>61240720921.351768</v>
       </c>
@@ -4332,7 +4313,7 @@
     <row r="83" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="47"/>
-      <c r="C83" s="121"/>
+      <c r="C83" s="120"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4400,7 +4381,7 @@
     </row>
     <row r="86" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="103"/>
+      <c r="B86" s="102"/>
       <c r="C86" s="74"/>
       <c r="D86" s="74"/>
       <c r="E86" s="74"/>
@@ -4888,39 +4869,39 @@
       <c r="B98" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="104">
+      <c r="C98" s="103">
         <f>'Cash Flow Statement'!B22</f>
         <v>6265200000</v>
       </c>
-      <c r="D98" s="104">
+      <c r="D98" s="103">
         <f>'Cash Flow Statement'!C22</f>
         <v>9141500000</v>
       </c>
-      <c r="E98" s="104">
+      <c r="E98" s="103">
         <f>'Cash Flow Statement'!D22</f>
         <v>7386700000</v>
       </c>
-      <c r="F98" s="104">
+      <c r="F98" s="103">
         <f>'Cash Flow Statement'!E22</f>
         <v>9611900000</v>
       </c>
-      <c r="G98" s="86">
+      <c r="G98" s="85">
         <f>SUM(G87:G88,G93:G97)</f>
         <v>12320743823.029795</v>
       </c>
-      <c r="H98" s="86">
+      <c r="H98" s="85">
         <f t="shared" ref="H98:K98" si="30">SUM(H87:H88,H93:H97)</f>
         <v>12679825299.560593</v>
       </c>
-      <c r="I98" s="86">
+      <c r="I98" s="85">
         <f t="shared" si="30"/>
         <v>12913783596.27887</v>
       </c>
-      <c r="J98" s="86">
+      <c r="J98" s="85">
         <f t="shared" si="30"/>
         <v>13170945315.02689</v>
       </c>
-      <c r="K98" s="86">
+      <c r="K98" s="85">
         <f t="shared" si="30"/>
         <v>13526904059.175373</v>
       </c>
@@ -4932,7 +4913,7 @@
       <c r="C99" s="72"/>
       <c r="D99" s="72"/>
       <c r="E99" s="72"/>
-      <c r="F99" s="106"/>
+      <c r="F99" s="105"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -5103,39 +5084,39 @@
       <c r="B105" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="104">
+      <c r="C105" s="103">
         <f>SUM(C100:C104)</f>
         <v>-1545800000</v>
       </c>
-      <c r="D105" s="104">
+      <c r="D105" s="103">
         <f t="shared" ref="D105:F105" si="32">SUM(D100:D104)</f>
         <v>-2165700000</v>
       </c>
-      <c r="E105" s="104">
+      <c r="E105" s="103">
         <f t="shared" si="32"/>
         <v>-2678100000</v>
       </c>
-      <c r="F105" s="104">
+      <c r="F105" s="103">
         <f t="shared" si="32"/>
         <v>-3184500000</v>
       </c>
-      <c r="G105" s="107">
+      <c r="G105" s="106">
         <f t="shared" ref="G105:K105" si="33">SUM(G100:G104)</f>
         <v>-4310933363.7431717</v>
       </c>
-      <c r="H105" s="104">
+      <c r="H105" s="103">
         <f t="shared" si="33"/>
         <v>-4489884198.2928982</v>
       </c>
-      <c r="I105" s="104">
+      <c r="I105" s="103">
         <f t="shared" si="33"/>
         <v>-4570032974.2416849</v>
       </c>
-      <c r="J105" s="104">
+      <c r="J105" s="103">
         <f t="shared" si="33"/>
         <v>-4664526914.9765186</v>
       </c>
-      <c r="K105" s="105">
+      <c r="K105" s="104">
         <f t="shared" si="33"/>
         <v>-4656630054.8385487</v>
       </c>
@@ -5161,7 +5142,7 @@
       <c r="C107" s="72"/>
       <c r="D107" s="72"/>
       <c r="E107" s="72"/>
-      <c r="F107" s="106"/>
+      <c r="F107" s="105"/>
       <c r="G107" s="72"/>
       <c r="H107" s="72"/>
       <c r="I107" s="72"/>
@@ -5379,39 +5360,39 @@
       <c r="B113" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="104">
+      <c r="C113" s="103">
         <f>SUM(C108:C112)</f>
         <v>-2249000000</v>
       </c>
-      <c r="D113" s="104">
+      <c r="D113" s="103">
         <f t="shared" ref="D113:K113" si="35">SUM(D108:D112)</f>
         <v>-5595600000</v>
       </c>
-      <c r="E113" s="104">
+      <c r="E113" s="103">
         <f t="shared" si="35"/>
         <v>-6580200000</v>
       </c>
-      <c r="F113" s="105">
+      <c r="F113" s="104">
         <f t="shared" si="35"/>
         <v>-4374100000</v>
       </c>
-      <c r="G113" s="107">
+      <c r="G113" s="106">
         <f t="shared" si="35"/>
         <v>-4929500000</v>
       </c>
-      <c r="H113" s="104">
+      <c r="H113" s="103">
         <f t="shared" si="35"/>
         <v>-3184206250</v>
       </c>
-      <c r="I113" s="104">
+      <c r="I113" s="103">
         <f t="shared" si="35"/>
         <v>-3406914062.5</v>
       </c>
-      <c r="J113" s="104">
+      <c r="J113" s="103">
         <f t="shared" si="35"/>
         <v>-3613523828.125</v>
       </c>
-      <c r="K113" s="105">
+      <c r="K113" s="104">
         <f t="shared" si="35"/>
         <v>-3783536035.15625</v>
       </c>
@@ -5428,7 +5409,7 @@
       <c r="H114" s="72"/>
       <c r="I114" s="72"/>
       <c r="J114" s="72"/>
-      <c r="K114" s="106"/>
+      <c r="K114" s="105"/>
       <c r="L114" s="11"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -5437,7 +5418,7 @@
       <c r="C115" s="72"/>
       <c r="D115" s="72"/>
       <c r="E115" s="72"/>
-      <c r="F115" s="106"/>
+      <c r="F115" s="105"/>
       <c r="K115" s="1"/>
       <c r="L115" s="11"/>
     </row>
@@ -5489,35 +5470,35 @@
       <c r="B117" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C117" s="104">
+      <c r="C117" s="103">
         <f>'Cash Flow Statement'!B46</f>
         <v>2470400000</v>
       </c>
-      <c r="D117" s="104">
+      <c r="D117" s="103">
         <f>'Cash Flow Statement'!C46</f>
         <v>1380200000</v>
       </c>
-      <c r="E117" s="104">
+      <c r="E117" s="103">
         <f>'Cash Flow Statement'!D46</f>
         <v>-1871600000</v>
       </c>
-      <c r="F117" s="104">
+      <c r="F117" s="103">
         <f>'Cash Flow Statement'!E46</f>
         <v>2053300000</v>
       </c>
-      <c r="G117" s="93">
+      <c r="G117" s="92">
         <f>G98+G105+G113</f>
         <v>3080310459.286623</v>
       </c>
-      <c r="H117" s="93">
+      <c r="H117" s="92">
         <f>H98+H105+H113</f>
         <v>5005734851.2676945</v>
       </c>
-      <c r="I117" s="93">
+      <c r="I117" s="92">
         <f>I98+I105+I113</f>
         <v>4936836559.5371847</v>
       </c>
-      <c r="J117" s="93">
+      <c r="J117" s="92">
         <f>J98+J105+J113</f>
         <v>4892894571.9253712</v>
       </c>
@@ -5785,39 +5766,39 @@
       <c r="B124" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C124" s="104">
+      <c r="C124" s="103">
         <f>SUM(C121:C122)</f>
         <v>4624400000</v>
       </c>
-      <c r="D124" s="104">
+      <c r="D124" s="103">
         <f t="shared" ref="D124:E124" si="39">SUM(D121:D122)</f>
         <v>7101500000</v>
       </c>
-      <c r="E124" s="104">
+      <c r="E124" s="103">
         <f t="shared" si="39"/>
         <v>5487500000</v>
       </c>
-      <c r="F124" s="104">
+      <c r="F124" s="103">
         <f>SUM(F121:F122)</f>
         <v>7254500000</v>
       </c>
-      <c r="G124" s="112">
+      <c r="G124" s="111">
         <f>SUM(G121:G122)</f>
         <v>9994160459.286623</v>
       </c>
-      <c r="H124" s="112">
+      <c r="H124" s="111">
         <f t="shared" ref="H124:K124" si="40">SUM(H121:H122)</f>
         <v>10260178601.267694</v>
       </c>
-      <c r="I124" s="112">
+      <c r="I124" s="111">
         <f t="shared" si="40"/>
         <v>10421547497.037186</v>
       </c>
-      <c r="J124" s="112">
+      <c r="J124" s="111">
         <f t="shared" si="40"/>
         <v>10628864493.800371</v>
       </c>
-      <c r="K124" s="112">
+      <c r="K124" s="111">
         <f t="shared" si="40"/>
         <v>10933981621.524324</v>
       </c>
@@ -5833,20 +5814,23 @@
       <c r="H128" s="72"/>
     </row>
     <row r="132" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="113"/>
+      <c r="D132" s="112"/>
+      <c r="E132" s="112"/>
+      <c r="F132" s="112"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L12:L16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AA98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="125" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5910,7 +5894,7 @@
       <c r="B5" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="119">
+      <c r="C5" s="118">
         <v>0.02</v>
       </c>
       <c r="E5" s="22"/>
@@ -5920,7 +5904,7 @@
       <c r="B6" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="93">
         <f>(G27*(1+C5))/(C3-C5)</f>
         <v>198468257896.79691</v>
       </c>
@@ -5946,7 +5930,7 @@
       <c r="B8" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="93">
         <f>C6/((1+C3)^5)</f>
         <v>137479795154.21985</v>
       </c>
@@ -5956,15 +5940,15 @@
       <c r="F8" s="79">
         <v>5.5E-2</v>
       </c>
-      <c r="H8" s="110"/>
+      <c r="H8" s="109"/>
       <c r="I8" s="72"/>
-      <c r="K8" s="110"/>
+      <c r="K8" s="109"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="94">
         <f>SUM(C28:G28)</f>
         <v>42004077999.848053</v>
       </c>
@@ -5975,14 +5959,14 @@
         <f>F6+F7*(F8)</f>
         <v>7.6800000000000007E-2</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="109"/>
       <c r="I9" s="72"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="96">
+      <c r="C10" s="95">
         <f>SUM(C8:C9)</f>
         <v>179483873154.0679</v>
       </c>
@@ -6016,7 +6000,7 @@
       <c r="B13" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="96">
+      <c r="C13" s="95">
         <f>C10-C12</f>
         <v>179483873154.0679</v>
       </c>
@@ -6038,17 +6022,17 @@
         <f>'Balance Sheet'!E65</f>
         <v>53091100000</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="96">
         <f>C13/'Statement Model'!C6</f>
         <v>248.66150339992782</v>
       </c>
@@ -6064,7 +6048,7 @@
       <c r="B16" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="96">
         <f>'Statement Model'!C5</f>
         <v>278.49</v>
       </c>
@@ -6097,14 +6081,14 @@
         <f>IF(C18&gt;0,"Potential Upside ($)","Potential Downside ($)")</f>
         <v>Potential Downside ($)</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="97">
         <f>C15-C16</f>
         <v>-29.828496600072185</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="115">
+      <c r="F18" s="114">
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="K18" s="7"/>
@@ -6119,7 +6103,7 @@
         <f>IF(C19&gt;0,"Potential Upside (%)","Potential Downside (%)")</f>
         <v>Potential Downside (%)</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="98">
         <f>C18/C16</f>
         <v>-0.10710796294327331</v>
       </c>
@@ -6179,7 +6163,7 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="G24" s="1"/>
-      <c r="J24" s="111"/>
+      <c r="J24" s="110"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
@@ -6206,13 +6190,13 @@
         <f>'Statement Model'!K32</f>
         <v>13876143842.752584</v>
       </c>
-      <c r="J25" s="111"/>
+      <c r="J25" s="110"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="G26" s="1"/>
-      <c r="J26" s="111"/>
+      <c r="J26" s="110"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
@@ -6239,83 +6223,83 @@
         <f>'Statement Model'!K124</f>
         <v>10933981621.524324</v>
       </c>
-      <c r="J27" s="111"/>
+      <c r="J27" s="110"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="114">
+      <c r="C28" s="113">
         <f>C27/((1+$C$3)^1)</f>
         <v>9286581652.8855534</v>
       </c>
-      <c r="D28" s="114">
+      <c r="D28" s="113">
         <f>D27/((1+$C$3)^2)</f>
         <v>8858782686.8109589</v>
       </c>
-      <c r="E28" s="114">
+      <c r="E28" s="113">
         <f>E27/((1+$C$3)^3)</f>
         <v>8361051595.9538517</v>
       </c>
-      <c r="F28" s="114">
+      <c r="F28" s="113">
         <f>F27/((1+$C$3)^4)</f>
         <v>7923647108.4719658</v>
       </c>
-      <c r="G28" s="114">
+      <c r="G28" s="113">
         <f>G27/((1+$C$3)^5)</f>
         <v>7574014955.7257195</v>
       </c>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J29" s="111"/>
+      <c r="J29" s="110"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J30" s="111"/>
+      <c r="J30" s="110"/>
       <c r="K30" s="7"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="111"/>
+      <c r="D37" s="110"/>
       <c r="E37" s="72"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="111"/>
+      <c r="D38" s="110"/>
       <c r="E38" s="72"/>
       <c r="I38" s="72"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="111"/>
+      <c r="D39" s="110"/>
       <c r="E39" s="72"/>
-      <c r="H39" s="111"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="72"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="111"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="72"/>
       <c r="G40" s="72"/>
-      <c r="H40" s="111"/>
+      <c r="H40" s="110"/>
       <c r="I40" s="72"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F41" s="111"/>
+      <c r="F41" s="110"/>
       <c r="G41" s="72"/>
-      <c r="H41" s="111"/>
+      <c r="H41" s="110"/>
       <c r="I41" s="72"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F42" s="111"/>
+      <c r="F42" s="110"/>
       <c r="G42" s="72"/>
-      <c r="H42" s="111"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="72"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F43" s="111"/>
+      <c r="F43" s="110"/>
       <c r="G43" s="72"/>
-      <c r="H43" s="111"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="72"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -6352,22 +6336,22 @@
       <c r="I54" s="72"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="111"/>
+      <c r="I59" s="110"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="111"/>
+      <c r="I60" s="110"/>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="111"/>
+      <c r="I62" s="110"/>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="111"/>
+      <c r="I63" s="110"/>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
     </row>
     <row r="65" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="I65" s="111"/>
+      <c r="I65" s="110"/>
       <c r="J65" s="72"/>
       <c r="T65" s="71"/>
       <c r="U65" s="71"/>
@@ -6398,7 +6382,7 @@
       <c r="V67" s="72"/>
     </row>
     <row r="70" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="U70" s="111"/>
+      <c r="U70" s="110"/>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
@@ -6412,85 +6396,85 @@
       <c r="P71" s="72"/>
       <c r="Q71" s="72"/>
       <c r="R71" s="72"/>
-      <c r="U71" s="111"/>
-      <c r="X71" s="111"/>
+      <c r="U71" s="110"/>
+      <c r="X71" s="110"/>
     </row>
     <row r="72" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D72" s="51"/>
       <c r="G72" s="72"/>
-      <c r="H72" s="111"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="72"/>
       <c r="J72" s="72"/>
       <c r="K72" s="72"/>
-      <c r="U72" s="111"/>
-      <c r="X72" s="111"/>
+      <c r="U72" s="110"/>
+      <c r="X72" s="110"/>
     </row>
     <row r="73" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D73" s="6"/>
       <c r="G73" s="72"/>
-      <c r="H73" s="111"/>
+      <c r="H73" s="110"/>
       <c r="I73" s="72"/>
       <c r="J73" s="72"/>
       <c r="K73" s="72"/>
-      <c r="U73" s="111"/>
-      <c r="X73" s="111"/>
+      <c r="U73" s="110"/>
+      <c r="X73" s="110"/>
     </row>
     <row r="74" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H74" s="111"/>
+      <c r="H74" s="110"/>
       <c r="I74" s="72"/>
       <c r="J74" s="72"/>
       <c r="K74" s="72"/>
-      <c r="U74" s="111"/>
-      <c r="X74" s="111"/>
+      <c r="U74" s="110"/>
+      <c r="X74" s="110"/>
     </row>
     <row r="75" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H75" s="111"/>
+      <c r="H75" s="110"/>
       <c r="I75" s="72"/>
       <c r="J75" s="72"/>
       <c r="K75" s="72"/>
-      <c r="X75" s="111"/>
+      <c r="X75" s="110"/>
     </row>
     <row r="76" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H76" s="111"/>
+      <c r="H76" s="110"/>
       <c r="I76" s="72"/>
       <c r="J76" s="72"/>
       <c r="K76" s="72"/>
     </row>
     <row r="77" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D77" s="72"/>
-      <c r="H77" s="111"/>
+      <c r="H77" s="110"/>
       <c r="I77" s="72"/>
       <c r="J77" s="72"/>
       <c r="K77" s="72"/>
     </row>
     <row r="78" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H78" s="111"/>
+      <c r="H78" s="110"/>
       <c r="I78" s="72"/>
       <c r="J78" s="72"/>
       <c r="K78" s="72"/>
     </row>
     <row r="79" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H79" s="111"/>
+      <c r="H79" s="110"/>
       <c r="I79" s="72"/>
       <c r="J79" s="72"/>
       <c r="K79" s="72"/>
     </row>
     <row r="80" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H80" s="111"/>
+      <c r="H80" s="110"/>
       <c r="I80" s="72"/>
       <c r="J80" s="72"/>
       <c r="K80" s="72"/>
     </row>
     <row r="81" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I81" s="111"/>
+      <c r="I81" s="110"/>
       <c r="J81" s="72"/>
     </row>
     <row r="82" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I82" s="111"/>
+      <c r="I82" s="110"/>
       <c r="J82" s="72"/>
     </row>
     <row r="83" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I83" s="111"/>
+      <c r="I83" s="110"/>
       <c r="J83" s="72"/>
     </row>
     <row r="84" spans="7:13" x14ac:dyDescent="0.2">
@@ -6505,82 +6489,82 @@
       <c r="L86" s="72"/>
     </row>
     <row r="87" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G87" s="111"/>
+      <c r="G87" s="110"/>
       <c r="H87" s="72"/>
       <c r="I87" s="49"/>
-      <c r="K87" s="111"/>
+      <c r="K87" s="110"/>
       <c r="L87" s="72"/>
       <c r="M87" s="72"/>
     </row>
     <row r="88" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G88" s="111"/>
+      <c r="G88" s="110"/>
       <c r="H88" s="72"/>
       <c r="I88" s="49"/>
       <c r="J88" s="49"/>
-      <c r="K88" s="111"/>
+      <c r="K88" s="110"/>
       <c r="L88" s="72"/>
       <c r="M88" s="72"/>
     </row>
     <row r="89" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G89" s="111"/>
+      <c r="G89" s="110"/>
       <c r="H89" s="72"/>
       <c r="I89" s="49"/>
       <c r="J89" s="49"/>
-      <c r="K89" s="111"/>
+      <c r="K89" s="110"/>
       <c r="L89" s="72"/>
       <c r="M89" s="72"/>
     </row>
     <row r="90" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G90" s="111"/>
+      <c r="G90" s="110"/>
       <c r="H90" s="72"/>
       <c r="I90" s="49"/>
       <c r="J90" s="49"/>
-      <c r="K90" s="111"/>
+      <c r="K90" s="110"/>
       <c r="L90" s="72"/>
       <c r="M90" s="72"/>
     </row>
     <row r="91" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G91" s="111"/>
+      <c r="G91" s="110"/>
       <c r="H91" s="72"/>
       <c r="I91" s="6"/>
       <c r="J91" s="49"/>
-      <c r="K91" s="111"/>
+      <c r="K91" s="110"/>
       <c r="L91" s="72"/>
       <c r="M91" s="72"/>
     </row>
     <row r="92" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G92" s="111"/>
+      <c r="G92" s="110"/>
       <c r="H92" s="72"/>
       <c r="I92" s="6"/>
       <c r="J92" s="49"/>
-      <c r="K92" s="111"/>
+      <c r="K92" s="110"/>
       <c r="L92" s="72"/>
       <c r="M92" s="72"/>
     </row>
     <row r="93" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G93" s="111"/>
+      <c r="G93" s="110"/>
       <c r="H93" s="72"/>
       <c r="I93" s="6"/>
       <c r="J93" s="49"/>
-      <c r="K93" s="111"/>
+      <c r="K93" s="110"/>
       <c r="L93" s="72"/>
       <c r="M93" s="72"/>
     </row>
     <row r="94" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G94" s="111"/>
+      <c r="G94" s="110"/>
       <c r="H94" s="72"/>
       <c r="I94" s="6"/>
       <c r="J94" s="49"/>
-      <c r="K94" s="111"/>
+      <c r="K94" s="110"/>
       <c r="L94" s="72"/>
       <c r="M94" s="72"/>
     </row>
     <row r="95" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G95" s="111"/>
+      <c r="G95" s="110"/>
       <c r="H95" s="72"/>
       <c r="I95" s="6"/>
       <c r="J95" s="49"/>
-      <c r="K95" s="111"/>
+      <c r="K95" s="110"/>
       <c r="L95" s="72"/>
       <c r="M95" s="72"/>
     </row>
@@ -6607,7 +6591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -6625,21 +6609,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="118">
+      <c r="B1" s="117">
         <v>2020</v>
       </c>
-      <c r="C1" s="118">
+      <c r="C1" s="117">
         <v>2021</v>
       </c>
-      <c r="D1" s="118">
+      <c r="D1" s="117">
         <v>2022</v>
       </c>
-      <c r="E1" s="118">
+      <c r="E1" s="117">
         <v>2023</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>116</v>
       </c>
       <c r="B2">
@@ -6656,7 +6640,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>117</v>
       </c>
       <c r="B3">
@@ -6673,7 +6657,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>118</v>
       </c>
       <c r="B4">
@@ -6690,7 +6674,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>119</v>
       </c>
       <c r="B5">
@@ -6707,7 +6691,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="116" t="s">
         <v>120</v>
       </c>
       <c r="B6">
@@ -6724,7 +6708,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="116" t="s">
         <v>248</v>
       </c>
       <c r="B7">
@@ -6741,7 +6725,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="116" t="s">
         <v>249</v>
       </c>
       <c r="B8">
@@ -6758,7 +6742,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="116" t="s">
         <v>121</v>
       </c>
       <c r="B9">
@@ -6775,7 +6759,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="116" t="s">
         <v>122</v>
       </c>
       <c r="B10">
@@ -6792,7 +6776,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="116" t="s">
         <v>123</v>
       </c>
       <c r="B11">
@@ -6809,7 +6793,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="116" t="s">
         <v>124</v>
       </c>
       <c r="B12">
@@ -6826,7 +6810,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="116" t="s">
         <v>125</v>
       </c>
       <c r="B13">
@@ -6843,7 +6827,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="116" t="s">
         <v>250</v>
       </c>
       <c r="B14">
@@ -6860,7 +6844,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="116" t="s">
         <v>251</v>
       </c>
       <c r="B15">
@@ -6877,7 +6861,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="116" t="s">
         <v>252</v>
       </c>
       <c r="B16">
@@ -6885,7 +6869,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="116" t="s">
         <v>253</v>
       </c>
       <c r="B17">
@@ -6902,7 +6886,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="116" t="s">
         <v>254</v>
       </c>
       <c r="B18">
@@ -6919,7 +6903,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="116" t="s">
         <v>255</v>
       </c>
       <c r="B19">
@@ -6936,7 +6920,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="116" t="s">
         <v>256</v>
       </c>
       <c r="B20">
@@ -6953,7 +6937,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="116" t="s">
         <v>126</v>
       </c>
       <c r="B21">
@@ -6970,7 +6954,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="116" t="s">
         <v>127</v>
       </c>
       <c r="B22">
@@ -6987,7 +6971,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="116" t="s">
         <v>128</v>
       </c>
       <c r="B23">
@@ -7004,7 +6988,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="116" t="s">
         <v>129</v>
       </c>
       <c r="B24">
@@ -7021,7 +7005,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="116" t="s">
         <v>130</v>
       </c>
       <c r="B25">
@@ -7038,7 +7022,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="116" t="s">
         <v>131</v>
       </c>
       <c r="B26">
@@ -7055,7 +7039,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="116" t="s">
         <v>61</v>
       </c>
       <c r="B27">
@@ -7072,7 +7056,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="116" t="s">
         <v>132</v>
       </c>
       <c r="B28">
@@ -7089,7 +7073,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="116" t="s">
         <v>133</v>
       </c>
       <c r="B29">
@@ -7106,7 +7090,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="116" t="s">
         <v>134</v>
       </c>
       <c r="B30">
@@ -7123,7 +7107,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="116" t="s">
         <v>135</v>
       </c>
       <c r="B31">
@@ -7140,7 +7124,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="116" t="s">
         <v>136</v>
       </c>
       <c r="B32">
@@ -7157,7 +7141,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="116" t="s">
         <v>137</v>
       </c>
       <c r="B33">
@@ -7174,7 +7158,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="116" t="s">
         <v>138</v>
       </c>
       <c r="B34">
@@ -7191,7 +7175,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="116" t="s">
         <v>257</v>
       </c>
       <c r="B35">
@@ -7208,7 +7192,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="116" t="s">
         <v>139</v>
       </c>
       <c r="B36">
@@ -7225,7 +7209,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="116" t="s">
         <v>140</v>
       </c>
       <c r="B37">
@@ -7242,7 +7226,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="116" t="s">
         <v>141</v>
       </c>
       <c r="B38">
@@ -7259,7 +7243,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="116" t="s">
         <v>142</v>
       </c>
       <c r="B39">
@@ -7276,7 +7260,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="116" t="s">
         <v>143</v>
       </c>
       <c r="B40">
@@ -7293,7 +7277,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="116" t="s">
         <v>144</v>
       </c>
       <c r="B41">
@@ -7310,7 +7294,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="116" t="s">
         <v>20</v>
       </c>
       <c r="B42">
@@ -7327,7 +7311,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="116" t="s">
         <v>113</v>
       </c>
       <c r="B43">
@@ -7344,7 +7328,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="116" t="s">
         <v>145</v>
       </c>
       <c r="B44">
@@ -7361,7 +7345,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="116" t="s">
         <v>146</v>
       </c>
       <c r="B45">
@@ -7378,7 +7362,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="116" t="s">
         <v>147</v>
       </c>
       <c r="B46">
@@ -7395,7 +7379,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="116" t="s">
         <v>258</v>
       </c>
       <c r="B47">
@@ -7412,7 +7396,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="116" t="s">
         <v>259</v>
       </c>
       <c r="B48">
@@ -7429,7 +7413,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="116" t="s">
         <v>148</v>
       </c>
       <c r="B49">
@@ -7446,7 +7430,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="116" t="s">
         <v>149</v>
       </c>
       <c r="B50">
@@ -7463,7 +7447,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="116" t="s">
         <v>150</v>
       </c>
       <c r="B51">
@@ -7484,7 +7468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -7504,21 +7488,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="116">
+      <c r="B1" s="115">
         <v>44196</v>
       </c>
-      <c r="C1" s="116">
+      <c r="C1" s="115">
         <v>44561</v>
       </c>
-      <c r="D1" s="116">
+      <c r="D1" s="115">
         <v>44926</v>
       </c>
-      <c r="E1" s="116">
+      <c r="E1" s="115">
         <v>45291</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>35</v>
       </c>
       <c r="B2">
@@ -7535,7 +7519,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>151</v>
       </c>
       <c r="B3">
@@ -7552,7 +7536,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>152</v>
       </c>
       <c r="B4">
@@ -7569,7 +7553,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>153</v>
       </c>
       <c r="B5">
@@ -7586,7 +7570,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="116" t="s">
         <v>39</v>
       </c>
       <c r="B6">
@@ -7603,7 +7587,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="116" t="s">
         <v>234</v>
       </c>
       <c r="B7">
@@ -7614,7 +7598,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="116" t="s">
         <v>41</v>
       </c>
       <c r="B8">
@@ -7631,7 +7615,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="116" t="s">
         <v>154</v>
       </c>
       <c r="B9">
@@ -7648,7 +7632,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="116" t="s">
         <v>155</v>
       </c>
       <c r="B10">
@@ -7665,7 +7649,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="116" t="s">
         <v>156</v>
       </c>
       <c r="B11">
@@ -7682,7 +7666,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="116" t="s">
         <v>235</v>
       </c>
       <c r="B12">
@@ -7699,7 +7683,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="116" t="s">
         <v>157</v>
       </c>
       <c r="B13">
@@ -7713,7 +7697,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="116" t="s">
         <v>158</v>
       </c>
       <c r="B14">
@@ -7730,7 +7714,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="116" t="s">
         <v>159</v>
       </c>
       <c r="B15">
@@ -7747,7 +7731,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="116" t="s">
         <v>160</v>
       </c>
       <c r="B16">
@@ -7764,7 +7748,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="116" t="s">
         <v>161</v>
       </c>
       <c r="B17">
@@ -7781,7 +7765,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="116" t="s">
         <v>236</v>
       </c>
       <c r="B18">
@@ -7798,7 +7782,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="116" t="s">
         <v>237</v>
       </c>
       <c r="B19">
@@ -7815,7 +7799,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="116" t="s">
         <v>238</v>
       </c>
       <c r="B20">
@@ -7829,7 +7813,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="116" t="s">
         <v>239</v>
       </c>
       <c r="B21">
@@ -7846,7 +7830,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="116" t="s">
         <v>162</v>
       </c>
       <c r="B22">
@@ -7863,7 +7847,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="116" t="s">
         <v>45</v>
       </c>
       <c r="B23">
@@ -7880,7 +7864,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="116" t="s">
         <v>46</v>
       </c>
       <c r="B24">
@@ -7897,7 +7881,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="116" t="s">
         <v>47</v>
       </c>
       <c r="B25">
@@ -7914,7 +7898,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="116" t="s">
         <v>163</v>
       </c>
       <c r="B26" s="7">
@@ -7931,7 +7915,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="116" t="s">
         <v>164</v>
       </c>
       <c r="B27" s="7">
@@ -7948,7 +7932,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="116" t="s">
         <v>165</v>
       </c>
       <c r="B28" s="7">
@@ -7965,7 +7949,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="116" t="s">
         <v>166</v>
       </c>
       <c r="B29" s="7">
@@ -7982,7 +7966,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="116" t="s">
         <v>240</v>
       </c>
       <c r="B30">
@@ -7999,7 +7983,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="116" t="s">
         <v>241</v>
       </c>
       <c r="B31">
@@ -8016,7 +8000,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="116" t="s">
         <v>167</v>
       </c>
       <c r="B32">
@@ -8033,7 +8017,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="116" t="s">
         <v>168</v>
       </c>
       <c r="B33">
@@ -8044,7 +8028,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="116" t="s">
         <v>169</v>
       </c>
       <c r="B34">
@@ -8055,7 +8039,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="116" t="s">
         <v>170</v>
       </c>
       <c r="B35">
@@ -8072,7 +8056,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="116" t="s">
         <v>171</v>
       </c>
       <c r="B36">
@@ -8089,7 +8073,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="116" t="s">
         <v>172</v>
       </c>
       <c r="B37">
@@ -8106,7 +8090,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="116" t="s">
         <v>56</v>
       </c>
       <c r="B38">
@@ -8123,7 +8107,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="116" t="s">
         <v>173</v>
       </c>
       <c r="B39">
@@ -8140,7 +8124,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="116" t="s">
         <v>174</v>
       </c>
       <c r="B40">
@@ -8157,7 +8141,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="116" t="s">
         <v>242</v>
       </c>
       <c r="B41">
@@ -8174,7 +8158,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="116" t="s">
         <v>243</v>
       </c>
       <c r="B42">
@@ -8191,7 +8175,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="116" t="s">
         <v>244</v>
       </c>
       <c r="B43">
@@ -8208,7 +8192,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="116" t="s">
         <v>175</v>
       </c>
       <c r="B44">
@@ -8225,7 +8209,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="116" t="s">
         <v>57</v>
       </c>
       <c r="B45">
@@ -8242,7 +8226,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="116" t="s">
         <v>176</v>
       </c>
       <c r="B46">
@@ -8259,7 +8243,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="116" t="s">
         <v>177</v>
       </c>
       <c r="B47">
@@ -8276,7 +8260,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="116" t="s">
         <v>245</v>
       </c>
       <c r="B48">
@@ -8293,7 +8277,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="116" t="s">
         <v>178</v>
       </c>
       <c r="B49">
@@ -8310,7 +8294,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="116" t="s">
         <v>179</v>
       </c>
       <c r="B50">
@@ -8327,7 +8311,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="116" t="s">
         <v>246</v>
       </c>
       <c r="B51">
@@ -8344,7 +8328,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="116" t="s">
         <v>180</v>
       </c>
       <c r="B52">
@@ -8361,7 +8345,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="116" t="s">
         <v>247</v>
       </c>
       <c r="B53">
@@ -8378,7 +8362,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="117" t="s">
+      <c r="A54" s="116" t="s">
         <v>181</v>
       </c>
       <c r="B54">
@@ -8395,7 +8379,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="116" t="s">
         <v>182</v>
       </c>
       <c r="B55">
@@ -8412,7 +8396,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="116" t="s">
         <v>183</v>
       </c>
       <c r="B56">
@@ -8429,7 +8413,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="116" t="s">
         <v>184</v>
       </c>
       <c r="B57">
@@ -8446,7 +8430,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="116" t="s">
         <v>185</v>
       </c>
       <c r="B58">
@@ -8463,7 +8447,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="117" t="s">
+      <c r="A59" s="116" t="s">
         <v>186</v>
       </c>
       <c r="B59">
@@ -8480,7 +8464,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="116" t="s">
         <v>187</v>
       </c>
       <c r="B60">
@@ -8497,7 +8481,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="117" t="s">
+      <c r="A61" s="116" t="s">
         <v>188</v>
       </c>
       <c r="B61">
@@ -8514,7 +8498,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="117" t="s">
+      <c r="A62" s="116" t="s">
         <v>189</v>
       </c>
       <c r="B62">
@@ -8531,7 +8515,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="117" t="s">
+      <c r="A63" s="116" t="s">
         <v>190</v>
       </c>
       <c r="B63">
@@ -8548,7 +8532,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="117" t="s">
+      <c r="A64" s="116" t="s">
         <v>191</v>
       </c>
       <c r="B64">
@@ -8565,7 +8549,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="117" t="s">
+      <c r="A65" s="116" t="s">
         <v>192</v>
       </c>
       <c r="B65">
@@ -8582,7 +8566,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="117" t="s">
+      <c r="A66" s="116" t="s">
         <v>193</v>
       </c>
       <c r="B66">
@@ -8599,7 +8583,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="117" t="s">
+      <c r="A67" s="116" t="s">
         <v>194</v>
       </c>
       <c r="B67">
@@ -8616,7 +8600,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="117" t="s">
+      <c r="A68" s="116" t="s">
         <v>195</v>
       </c>
       <c r="B68">
@@ -8633,7 +8617,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="117" t="s">
+      <c r="A69" s="116" t="s">
         <v>196</v>
       </c>
       <c r="B69">
@@ -8654,7 +8638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -8673,21 +8657,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="116">
+      <c r="B1" s="115">
         <v>44196</v>
       </c>
-      <c r="C1" s="116">
+      <c r="C1" s="115">
         <v>44561</v>
       </c>
-      <c r="D1" s="116">
+      <c r="D1" s="115">
         <v>44926</v>
       </c>
-      <c r="E1" s="116">
+      <c r="E1" s="115">
         <v>45291</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>197</v>
       </c>
       <c r="B2">
@@ -8704,7 +8688,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="116" t="s">
         <v>260</v>
       </c>
       <c r="B3">
@@ -8721,7 +8705,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>261</v>
       </c>
       <c r="B4">
@@ -8738,7 +8722,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="116" t="s">
         <v>23</v>
       </c>
       <c r="B5">
@@ -8755,7 +8739,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="116" t="s">
         <v>198</v>
       </c>
       <c r="B6">
@@ -8772,7 +8756,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="116" t="s">
         <v>64</v>
       </c>
       <c r="B7">
@@ -8789,7 +8773,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="116" t="s">
         <v>199</v>
       </c>
       <c r="B8">
@@ -8806,7 +8790,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="116" t="s">
         <v>65</v>
       </c>
       <c r="B9">
@@ -8823,7 +8807,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="116" t="s">
         <v>68</v>
       </c>
       <c r="B10">
@@ -8840,7 +8824,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="116" t="s">
         <v>200</v>
       </c>
       <c r="B11">
@@ -8857,7 +8841,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="116" t="s">
         <v>201</v>
       </c>
       <c r="B12">
@@ -8874,7 +8858,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="116" t="s">
         <v>202</v>
       </c>
       <c r="B13">
@@ -8891,7 +8875,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="116" t="s">
         <v>262</v>
       </c>
       <c r="B14">
@@ -8905,7 +8889,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="116" t="s">
         <v>263</v>
       </c>
       <c r="B15">
@@ -8919,7 +8903,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="116" t="s">
         <v>203</v>
       </c>
       <c r="B16">
@@ -8936,7 +8920,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="116" t="s">
         <v>204</v>
       </c>
       <c r="B17">
@@ -8953,7 +8937,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="116" t="s">
         <v>264</v>
       </c>
       <c r="B18">
@@ -8970,7 +8954,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="116" t="s">
         <v>205</v>
       </c>
       <c r="B19">
@@ -8987,7 +8971,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="116" t="s">
         <v>206</v>
       </c>
       <c r="C20">
@@ -9001,7 +8985,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="116" t="s">
         <v>66</v>
       </c>
       <c r="B21">
@@ -9018,41 +9002,41 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="B22" s="123">
+      <c r="B22" s="122">
         <v>6265200000</v>
       </c>
-      <c r="C22" s="123">
+      <c r="C22" s="122">
         <v>9141500000</v>
       </c>
-      <c r="D22" s="123">
+      <c r="D22" s="122">
         <v>7386700000</v>
       </c>
-      <c r="E22" s="123">
+      <c r="E22" s="122">
         <v>9611900000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="123">
+      <c r="B23" s="122">
         <v>6265200000</v>
       </c>
-      <c r="C23" s="123">
+      <c r="C23" s="122">
         <v>9141500000</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="122">
         <v>7386700000</v>
       </c>
-      <c r="E23" s="123">
+      <c r="E23" s="122">
         <v>9611900000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="116" t="s">
         <v>265</v>
       </c>
       <c r="B24">
@@ -9069,7 +9053,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="116" t="s">
         <v>266</v>
       </c>
       <c r="B25">
@@ -9086,7 +9070,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="116" t="s">
         <v>208</v>
       </c>
       <c r="B26">
@@ -9103,7 +9087,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="116" t="s">
         <v>209</v>
       </c>
       <c r="B27">
@@ -9120,7 +9104,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="116" t="s">
         <v>267</v>
       </c>
       <c r="B28">
@@ -9137,7 +9121,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="116" t="s">
         <v>210</v>
       </c>
       <c r="B29">
@@ -9154,7 +9138,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="116" t="s">
         <v>211</v>
       </c>
       <c r="B30">
@@ -9171,45 +9155,45 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="B31" s="123">
+      <c r="B31" s="122">
         <v>-1545800000</v>
       </c>
-      <c r="C31" s="123">
+      <c r="C31" s="122">
         <v>-2165700000</v>
       </c>
-      <c r="D31" s="123">
+      <c r="D31" s="122">
         <v>-2678100000</v>
       </c>
-      <c r="E31" s="123">
+      <c r="E31" s="122">
         <v>-3184500000</v>
       </c>
       <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="123">
+      <c r="B32" s="122">
         <v>-1545800000</v>
       </c>
-      <c r="C32" s="123">
+      <c r="C32" s="122">
         <v>-2165700000</v>
       </c>
-      <c r="D32" s="123">
+      <c r="D32" s="122">
         <v>-2678100000</v>
       </c>
-      <c r="E32" s="123">
+      <c r="E32" s="122">
         <v>-3184500000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="B33" s="122">
+      <c r="B33" s="121">
         <v>5543000000</v>
       </c>
       <c r="C33">
@@ -9223,10 +9207,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="B34" s="122">
+      <c r="B34" s="121">
         <v>-2411700000</v>
       </c>
       <c r="C34">
@@ -9240,10 +9224,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="122">
+      <c r="B35" s="121">
         <v>3131300000</v>
       </c>
       <c r="C35">
@@ -9257,10 +9241,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="122">
+      <c r="B36" s="121">
         <v>-893100000</v>
       </c>
       <c r="C36">
@@ -9274,10 +9258,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="122">
+      <c r="B37" s="121">
         <v>2238200000</v>
       </c>
       <c r="C37">
@@ -9291,10 +9275,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="122">
+      <c r="B38" s="121">
         <v>-907800000</v>
       </c>
       <c r="C38">
@@ -9312,10 +9296,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="116" t="s">
         <v>220</v>
       </c>
-      <c r="B39" s="122">
+      <c r="B39" s="121">
         <v>-907800000</v>
       </c>
       <c r="C39">
@@ -9329,10 +9313,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="B40" s="122">
+      <c r="B40" s="121">
         <v>-3752900000</v>
       </c>
       <c r="C40">
@@ -9346,10 +9330,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="B41" s="122">
+      <c r="B41" s="121">
         <v>-3752900000</v>
       </c>
       <c r="C41">
@@ -9363,7 +9347,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="116" t="s">
         <v>268</v>
       </c>
       <c r="B42">
@@ -9380,7 +9364,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="116" t="s">
         <v>223</v>
       </c>
       <c r="B43">
@@ -9397,42 +9381,42 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="119" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="123">
+      <c r="B44" s="122">
         <v>-2249000000</v>
       </c>
-      <c r="C44" s="123">
+      <c r="C44" s="122">
         <v>-5595600000</v>
       </c>
-      <c r="D44" s="123">
+      <c r="D44" s="122">
         <v>-6580200000</v>
       </c>
-      <c r="E44" s="123">
+      <c r="E44" s="122">
         <v>-4374100000</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="120" t="s">
+      <c r="A45" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="123">
+      <c r="B45" s="122">
         <v>-2249000000</v>
       </c>
-      <c r="C45" s="123">
+      <c r="C45" s="122">
         <v>-5595600000</v>
       </c>
-      <c r="D45" s="123">
+      <c r="D45" s="122">
         <v>-6580200000</v>
       </c>
-      <c r="E45" s="123">
+      <c r="E45" s="122">
         <v>-4374100000</v>
       </c>
-      <c r="F45" s="123"/>
+      <c r="F45" s="122"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="116" t="s">
         <v>226</v>
       </c>
       <c r="B46">
@@ -9447,10 +9431,10 @@
       <c r="E46">
         <v>2053300000</v>
       </c>
-      <c r="F46" s="123"/>
+      <c r="F46" s="122"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="116" t="s">
         <v>269</v>
       </c>
       <c r="B47">
@@ -9467,7 +9451,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="116" t="s">
         <v>227</v>
       </c>
       <c r="B48">
@@ -9484,12 +9468,12 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="116" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="117" t="s">
+      <c r="A50" s="116" t="s">
         <v>228</v>
       </c>
       <c r="B50">
@@ -9506,7 +9490,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="116" t="s">
         <v>229</v>
       </c>
       <c r="B51">
@@ -9523,7 +9507,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="116" t="s">
         <v>230</v>
       </c>
       <c r="B52">
@@ -9540,7 +9524,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="116" t="s">
         <v>83</v>
       </c>
       <c r="B53">
@@ -9557,7 +9541,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="117" t="s">
+      <c r="A54" s="116" t="s">
         <v>231</v>
       </c>
       <c r="B54">
@@ -9574,7 +9558,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="116" t="s">
         <v>232</v>
       </c>
       <c r="B55">
@@ -9591,7 +9575,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="116" t="s">
         <v>233</v>
       </c>
       <c r="B56">
@@ -9608,7 +9592,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="116" t="s">
         <v>85</v>
       </c>
       <c r="B57">
